--- a/medicine/Psychotrope/Liste_des_boissons_produites_en_Région_wallonne/Liste_des_boissons_produites_en_Région_wallonne.xlsx
+++ b/medicine/Psychotrope/Liste_des_boissons_produites_en_Région_wallonne/Liste_des_boissons_produites_en_Région_wallonne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_boissons_produites_en_R%C3%A9gion_wallonne</t>
+          <t>Liste_des_boissons_produites_en_Région_wallonne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article rassemble quelques boissons produites en Région wallonne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_boissons_produites_en_R%C3%A9gion_wallonne</t>
+          <t>Liste_des_boissons_produites_en_Région_wallonne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pils
 Jupiler
@@ -532,7 +546,7 @@
 Saint Feuillien de la Brasserie St-Feuillien
 Val-Dieu de la Brasserie de l'Abbaye du Val-Dieu
 Autres bières d'abbaye
-Abbaye de Gembloux de BeerFac[1] (anciennement de la Brasserie Lefebvre)
+Abbaye de Gembloux de BeerFac (anciennement de la Brasserie Lefebvre)
 Abbaye de la Thure de la Brasserie Brootcoorens
 Abbaye de Malonne de la Brasserie Lefebvre et de la Brasserie La Binchoise
 Abbaye de Oudkerken de la Brasserie Lefebvre
@@ -644,7 +658,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_boissons_produites_en_R%C3%A9gion_wallonne</t>
+          <t>Liste_des_boissons_produites_en_Région_wallonne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -662,14 +676,16 @@
           <t>Spiritueux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Amer Gervin
 Elixir de Spa
 Extrait de Spa
 Eau de Villée
 Fleur de Franchimont
-Gemblue[1]
+Gemblue
 Gratte-Cul
 Maitrank
 Peket
@@ -684,7 +700,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_boissons_produites_en_R%C3%A9gion_wallonne</t>
+          <t>Liste_des_boissons_produites_en_Région_wallonne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -702,9 +718,11 @@
           <t>Whiskys</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Belgian Owl[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Belgian Owl
 Lambertus</t>
         </is>
       </c>
@@ -715,7 +733,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_boissons_produites_en_R%C3%A9gion_wallonne</t>
+          <t>Liste_des_boissons_produites_en_Région_wallonne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -733,7 +751,9 @@
           <t>Vins</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>AOC Côtes de Sambre et Meuse
 AOC Crémant de Wallonie
@@ -748,7 +768,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_boissons_produites_en_R%C3%A9gion_wallonne</t>
+          <t>Liste_des_boissons_produites_en_Région_wallonne</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -766,7 +786,9 @@
           <t>Eaux minérales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Bru (produite à Stoumont par Spadel)
 Chaudfontaine (produite à Chaudfontaine par Coca Cola)
